--- a/PROJECT/PreciosValoracionesAirbnb/Excel Salidas/Barcelona/averagePriceBarcelonaZipcode.xlsx
+++ b/PROJECT/PreciosValoracionesAirbnb/Excel Salidas/Barcelona/averagePriceBarcelonaZipcode.xlsx
@@ -448,557 +448,557 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8017</t>
+          <t>8922</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102.0434782608696</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8029</t>
+          <t>8917</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.1150895140665</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8019</t>
+          <t>8904</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.6632390745501</v>
+        <v>29.28571428571428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8035</t>
+          <t>8033</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.71</v>
+        <v>33.30555555555556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8008</t>
+          <t>8042</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204.9392971246006</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8198</t>
+          <t>8040</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8012</t>
+          <t>8027</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88.48633879781421</v>
+        <v>43.87763713080169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8041</t>
+          <t>8020</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.23275862068965</v>
+        <v>45.3248730964467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8021</t>
+          <t>8031</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.0357142857143</v>
+        <v>49.88372093023256</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8034</t>
+          <t>8016</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.97619047619048</v>
+        <v>50.94047619047619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8024</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.5568445475638</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8020</t>
+          <t>8035</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.3248730964467</v>
+        <v>51.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8031</t>
+          <t>8902</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.88372093023256</v>
+        <v>54.66666666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8003</t>
+          <t>8903</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.32558139534883</v>
+        <v>58.37777777777778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>8016</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.94047619047619</v>
+        <v>67.15178571428571</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8011</t>
+          <t>8028</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.9635135135135</v>
+        <v>67.25296442687747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>8007</t>
+          <t>8026</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>191.2859778597786</v>
+        <v>68.27659574468085</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8006</t>
+          <t>8000</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.7694524495677</v>
+        <v>71.66666666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8013</t>
+          <t>8024</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.6562778272484</v>
+        <v>72.5568445475638</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8036</t>
+          <t>8022</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>108.1820728291317</v>
+        <v>74.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8010</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>173.4473684210526</v>
+        <v>74.54196642685851</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8042</t>
+          <t>8923</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8023</t>
+          <t>8018</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>92.28673835125448</v>
+        <v>75.95575221238938</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8033</t>
+          <t>8029</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>33.30555555555556</v>
+        <v>76.1150895140665</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8009</t>
+          <t>8003</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>169.0683544303797</v>
+        <v>77.32558139534883</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>8004</t>
+          <t>8041</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.40504334121356</v>
+        <v>80.23275862068965</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8005</t>
+          <t>8004</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.1917443408788</v>
+        <v>82.40504334121356</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8001</t>
+          <t>8930</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>74.54196642685851</v>
+        <v>82.71428571428571</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8027</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>43.87763713080169</v>
+        <v>83.23497267759562</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>8015</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83.23497267759562</v>
+        <v>83.78748068006182</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8014</t>
+          <t>8002</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>84.47548291233284</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8197</t>
+          <t>8014</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90</v>
+        <v>84.47548291233284</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8002</t>
+          <t>8906</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>84</v>
+        <v>86.71428571428571</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8018</t>
+          <t>8012</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75.95575221238938</v>
+        <v>88.48633879781421</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8015</t>
+          <t>8197</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83.78748068006182</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8028</t>
+          <t>8290</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>67.25296442687747</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8930</t>
+          <t>8023</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.71428571428571</v>
+        <v>92.28673835125448</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8026</t>
+          <t>8034</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68.27659574468085</v>
+        <v>92.97619047619048</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>8025</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51.36</v>
+        <v>94.82673796791444</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8025</t>
+          <t>8013</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>94.82673796791444</v>
+        <v>100.6562778272484</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8000</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>71.66666666666667</v>
+        <v>101.9635135135135</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>8017</t>
+        </is>
+      </c>
       <c r="B43" t="n">
-        <v>153.1111111111111</v>
+        <v>102.0434782608696</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8903</t>
+          <t>8037</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>58.37777777777778</v>
+        <v>105.4772036474164</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>8036</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>67.15178571428571</v>
+        <v>108.1820728291317</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8037</t>
+          <t>8005</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.4772036474164</v>
+        <v>108.1917443408788</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8022</t>
+          <t>8021</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>74.5</v>
+        <v>109.0357142857143</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8196</t>
+          <t>8006</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>185</v>
+        <v>109.7694524495677</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8290</t>
+          <t>8019</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>90</v>
+        <v>113.6632390745501</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>8902</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="n">
-        <v>54.66666666666666</v>
+        <v>153.1111111111111</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8039</t>
+          <t>8009</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>292.5</v>
+        <v>169.0683544303797</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8904</t>
+          <t>8010</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>29.28571428571428</v>
+        <v>173.4473684210526</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8906</t>
+          <t>8196</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>86.71428571428571</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8923</t>
+          <t>8198</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>75</v>
+        <v>187.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>8040</t>
+          <t>8007</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>42.5</v>
+        <v>191.2859778597786</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>8922</t>
+          <t>8008</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>26</v>
+        <v>204.9392971246006</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8917</t>
+          <t>8039</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>29</v>
+        <v>292.5</v>
       </c>
     </row>
   </sheetData>
